--- a/_assets/marketing/nuwbs-pricing-model.xlsx
+++ b/_assets/marketing/nuwbs-pricing-model.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>subscribers</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>teach</t>
+  </si>
+  <si>
+    <t>Per Hour</t>
   </si>
 </sst>
 </file>
@@ -821,7 +824,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,13 +834,12 @@
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -880,31 +882,31 @@
       </c>
       <c r="I2" s="36">
         <f>SUM(D42:D44)</f>
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="J2" s="54">
         <f>SUM(F42:F44)</f>
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="K2" s="54">
         <f>(I2*0.2)*0.25</f>
-        <v>38.75</v>
+        <v>0</v>
       </c>
       <c r="L2" s="54">
         <f>(J2*0.2)*0.2</f>
-        <v>24.8</v>
+        <v>0</v>
       </c>
       <c r="M2" s="54">
         <f>(K2*0.2)*0.05</f>
-        <v>0.38750000000000001</v>
+        <v>0</v>
       </c>
       <c r="N2" s="54">
         <f>(I2*0.2)-K2-L2-M2</f>
-        <v>91.0625</v>
+        <v>0</v>
       </c>
       <c r="O2" s="57">
         <f>SUM(J2:N2)</f>
-        <v>775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -917,31 +919,31 @@
       </c>
       <c r="I3" s="20">
         <f>SUM(E51:E53)</f>
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="J3" s="46">
-        <f>SUM(G51:G53)</f>
-        <v>750</v>
+        <f>SUM(H51:H53)</f>
+        <v>1200</v>
       </c>
       <c r="K3" s="46">
-        <f>((I3-SUM(G51:G53))*0.25)</f>
-        <v>1500</v>
+        <f>((I3-SUM(H51:H53))*0.25)</f>
+        <v>-300</v>
       </c>
       <c r="L3" s="46">
-        <f>((I3-SUM(G51:G53))*0.2)</f>
-        <v>1200</v>
+        <f>((I3-SUM(H51:H53))*0.2)</f>
+        <v>-240</v>
       </c>
       <c r="M3" s="46">
-        <f>((I3-SUM(G51:G53))*0.05)</f>
-        <v>300</v>
+        <f>((I3-SUM(H51:H53))*0.05)</f>
+        <v>-60</v>
       </c>
       <c r="N3" s="46">
-        <f>((I3-SUM(G51:G53))-K3-L3-M3)</f>
-        <v>3000</v>
+        <f>((I3-SUM(H51:H53))-K3-L3-M3)</f>
+        <v>-600</v>
       </c>
       <c r="O3" s="50">
         <f>SUM(J3:N3)</f>
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="S3" s="2"/>
     </row>
@@ -965,31 +967,31 @@
       </c>
       <c r="I4" s="16">
         <f>SUM(B4:B6)*B3</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J4" s="46">
         <f>E7</f>
-        <v>4.1999999999999993</v>
+        <v>6.2999999999999989</v>
       </c>
       <c r="K4" s="46">
         <f>((I4-J4)*0.25)</f>
-        <v>0.45000000000000018</v>
+        <v>0.67500000000000027</v>
       </c>
       <c r="L4" s="46">
         <f>((I4-J4)*0.2)</f>
-        <v>0.36000000000000015</v>
+        <v>0.54000000000000026</v>
       </c>
       <c r="M4" s="46">
         <f>((I4-J4)*0.05)</f>
-        <v>9.0000000000000038E-2</v>
+        <v>0.13500000000000006</v>
       </c>
       <c r="N4" s="46">
         <f>(I4-J4-K4-L4-M4)</f>
-        <v>0.90000000000000036</v>
+        <v>1.3500000000000005</v>
       </c>
       <c r="O4" s="50">
         <f t="shared" ref="O4:O6" si="0">SUM(J4:N4)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S4" s="2"/>
     </row>
@@ -998,15 +1000,15 @@
         <v>5</v>
       </c>
       <c r="B5" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="6">
         <f t="shared" ref="C5:C6" si="1">(B5*$B$3)*$C$2</f>
-        <v>0</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E6" si="2">(B5*$B$3)*$E$2</f>
-        <v>0</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>17</v>
@@ -1092,12 +1094,12 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C7" s="12">
         <f>SUM(C4:C6)</f>
-        <v>1.7999999999999998</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="12">
         <f>SUM(E4:E6)</f>
-        <v>4.1999999999999993</v>
+        <v>6.2999999999999989</v>
       </c>
       <c r="H7" s="45" t="s">
         <v>28</v>
@@ -1120,12 +1122,12 @@
       </c>
       <c r="I8" s="21">
         <f>I2+I3+I5+I6</f>
-        <v>8145</v>
+        <v>620</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="48">
         <f>I24/I9</f>
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
@@ -1146,7 +1148,7 @@
       </c>
       <c r="I9" s="16">
         <f>SUM(I2:I6)</f>
-        <v>8151</v>
+        <v>629</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
@@ -1189,6 +1191,10 @@
         <f>C9*0.1</f>
         <v>22.5</v>
       </c>
+      <c r="F11" s="2">
+        <f>E11/25</f>
+        <v>0.9</v>
+      </c>
       <c r="H11" s="15"/>
       <c r="I11" s="17" t="s">
         <v>22</v>
@@ -1218,11 +1224,11 @@
       </c>
       <c r="I12" s="24">
         <f>E13</f>
-        <v>11.25</v>
+        <v>22.5</v>
       </c>
       <c r="J12" s="25">
         <f>E32</f>
-        <v>19.75</v>
+        <v>39.5</v>
       </c>
       <c r="K12" s="26">
         <f>E4</f>
@@ -1230,15 +1236,15 @@
       </c>
       <c r="L12" s="39">
         <f>F42</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M12" s="39">
-        <f>G51</f>
-        <v>250</v>
+        <f>H51</f>
+        <v>525</v>
       </c>
       <c r="N12" s="56">
         <f>SUM(I12:M12)</f>
-        <v>403.1</v>
+        <v>589.1</v>
       </c>
       <c r="O12" s="18"/>
     </row>
@@ -1247,38 +1253,38 @@
         <v>9</v>
       </c>
       <c r="B13" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
         <f>($E$11/$B$17)*B13</f>
-        <v>11.25</v>
+        <v>22.5</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I13" s="24">
         <f>E14</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="J13" s="25">
         <f>E33</f>
-        <v>13.166666666666666</v>
+        <v>0</v>
       </c>
       <c r="K13" s="26">
         <f>E5</f>
-        <v>0</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="L13" s="39">
         <f>F43</f>
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="M13" s="39">
-        <f t="shared" ref="M13:M14" si="3">G52</f>
-        <v>0</v>
+        <f>H52</f>
+        <v>375</v>
       </c>
       <c r="N13" s="56">
         <f>SUM(I13:M13)</f>
-        <v>440.66666666666669</v>
+        <v>377.1</v>
       </c>
       <c r="O13" s="18"/>
     </row>
@@ -1287,38 +1293,38 @@
         <v>5</v>
       </c>
       <c r="B14" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <f>($E$11/$B$17)*B14</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="24">
         <f>E15</f>
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="J14" s="25">
         <f>E34</f>
-        <v>6.583333333333333</v>
+        <v>0</v>
       </c>
       <c r="K14" s="26">
         <f>E6</f>
         <v>2.0999999999999996</v>
       </c>
       <c r="L14" s="39">
-        <f t="shared" ref="L14" si="4">F44</f>
-        <v>80</v>
+        <f t="shared" ref="L14" si="3">F44</f>
+        <v>0</v>
       </c>
       <c r="M14" s="39">
-        <f t="shared" si="3"/>
-        <v>500</v>
+        <f>H53</f>
+        <v>300</v>
       </c>
       <c r="N14" s="56">
         <f>SUM(I14:M14)</f>
-        <v>592.43333333333339</v>
+        <v>302.10000000000002</v>
       </c>
       <c r="O14" s="18"/>
       <c r="P14" s="2"/>
@@ -1328,11 +1334,11 @@
         <v>6</v>
       </c>
       <c r="B15" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <f>($E$11/$B$17)*B15</f>
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="49">
@@ -1345,15 +1351,15 @@
       </c>
       <c r="K15" s="49">
         <f>SUM(K12:K14)</f>
-        <v>4.1999999999999993</v>
+        <v>6.2999999999999989</v>
       </c>
       <c r="L15" s="49">
         <f>SUM(L12:L14)</f>
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="M15" s="49">
         <f>SUM(M12:M14)</f>
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="N15" s="17"/>
       <c r="O15" s="18"/>
@@ -1367,13 +1373,13 @@
       </c>
       <c r="J16" s="16">
         <f>SUM(K2:K6)</f>
-        <v>1678.7</v>
+        <v>-159.82499999999999</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="17"/>
       <c r="N16" s="51">
         <f>SUM(N12:N14)</f>
-        <v>1436.2</v>
+        <v>1268.3000000000002</v>
       </c>
       <c r="O16" s="18"/>
     </row>
@@ -1383,7 +1389,7 @@
       </c>
       <c r="B17">
         <f>SUM(B13:B15)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
         <f>SUM(E13:E15)</f>
@@ -1397,7 +1403,7 @@
       </c>
       <c r="J17" s="16">
         <f>SUM(L2:L6)</f>
-        <v>1336.7599999999998</v>
+        <v>-127.86</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="17"/>
@@ -1414,7 +1420,7 @@
       </c>
       <c r="J18" s="16">
         <f>SUM(M2:M6)</f>
-        <v>328.37749999999994</v>
+        <v>-31.965</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="17"/>
@@ -1431,7 +1437,7 @@
       </c>
       <c r="J19" s="16">
         <f>SUM(N2:N3,N5:N6)</f>
-        <v>3370.0625</v>
+        <v>-321</v>
       </c>
       <c r="K19" s="58" t="s">
         <v>51</v>
@@ -1452,15 +1458,15 @@
       </c>
       <c r="J20" s="16">
         <f>N4</f>
-        <v>0.90000000000000036</v>
+        <v>1.3500000000000005</v>
       </c>
       <c r="K20" s="51">
         <f>SUM(J16:J20)</f>
-        <v>6714.7999999999993</v>
+        <v>-639.29999999999995</v>
       </c>
       <c r="L20" s="51">
         <f>SUM(I15:M15)</f>
-        <v>1436.2</v>
+        <v>1268.3</v>
       </c>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
@@ -1475,12 +1481,12 @@
       </c>
       <c r="J21" s="46">
         <f>SUM(E42:E44)</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="K21" s="17"/>
       <c r="L21" s="51">
         <f>K20+SUM(N12:N14)</f>
-        <v>8150.9999999999991</v>
+        <v>629.00000000000023</v>
       </c>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
@@ -1494,8 +1500,8 @@
         <v>47</v>
       </c>
       <c r="J22" s="46">
-        <f>SUM(H51:H53)*I19</f>
-        <v>2700</v>
+        <f>SUM(I51:I53)*I19</f>
+        <v>-540</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
@@ -1524,7 +1530,7 @@
       <c r="H24" s="28"/>
       <c r="I24" s="29">
         <f>SUM(N12:N14,J16:J20)</f>
-        <v>8150.9999999999991</v>
+        <v>629.00000000000011</v>
       </c>
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
@@ -1614,11 +1620,11 @@
       </c>
       <c r="B32">
         <f>B13</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
         <f>($E$31/$B$36)*B32</f>
-        <v>19.75</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1627,11 +1633,11 @@
       </c>
       <c r="B33">
         <f>B14</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" ref="E33:E34" si="5">($E$31/$B$36)*B33</f>
-        <v>13.166666666666666</v>
+        <f t="shared" ref="E33:E34" si="4">($E$31/$B$36)*B33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1640,11 +1646,11 @@
       </c>
       <c r="B34">
         <f>B15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="5"/>
-        <v>6.583333333333333</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1653,7 +1659,7 @@
       </c>
       <c r="B36">
         <f>SUM(B32:B34)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E36" s="2">
         <f>SUM(E32:E34)</f>
@@ -1690,22 +1696,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C42" s="11">
         <v>50</v>
       </c>
       <c r="D42" s="35">
         <f>C42*B42</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
         <f>D42*$E$41</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
         <f>D42*$F$41</f>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1713,22 +1719,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C43" s="11">
         <v>35</v>
       </c>
       <c r="D43" s="35">
         <f>C43*B43</f>
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
         <f>D43*$E$41</f>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1">
         <f>D43*$F$41</f>
-        <v>420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1736,47 +1742,47 @@
         <v>6</v>
       </c>
       <c r="B44" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="11">
         <v>100</v>
       </c>
       <c r="D44" s="35">
         <f>C44*B44</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
         <f>D44*$E$41</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1">
         <f>D44*$F$41</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H44" s="42"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D45" s="53">
         <f>SUM(D42:D44)</f>
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="E45" s="52">
         <f>SUM(E42:E44)</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="F45" s="52">
         <f>SUM(F42:F44)</f>
-        <v>620</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>40</v>
       </c>
@@ -1793,42 +1799,48 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" t="s">
         <v>38</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
       <c r="B51" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="11">
         <v>15</v>
       </c>
       <c r="D51">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E51" s="35">
         <f>D51*C51*B51</f>
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="F51" s="44">
-        <v>10</v>
-      </c>
-      <c r="G51" s="42">
-        <f>25*F51</f>
-        <v>250</v>
+        <v>7</v>
+      </c>
+      <c r="G51">
+        <v>75</v>
       </c>
       <c r="H51" s="42">
-        <f>E51-G51</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <f>F51*G51</f>
+        <v>525</v>
+      </c>
+      <c r="I51" s="42">
+        <f>E51-H51</f>
+        <v>-525</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1839,51 +1851,57 @@
         <v>15</v>
       </c>
       <c r="D52">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E52" s="35">
         <f>D52*C52*B52</f>
         <v>0</v>
       </c>
       <c r="F52" s="44">
-        <v>0</v>
-      </c>
-      <c r="G52" s="42">
-        <f t="shared" ref="G52" si="6">25*F52</f>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <v>25</v>
       </c>
       <c r="H52" s="42">
-        <f t="shared" ref="H52:H53" si="7">E52-G52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H52:H53" si="5">F52*G52</f>
+        <v>375</v>
+      </c>
+      <c r="I52" s="42">
+        <f>E52-H52</f>
+        <v>-375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C53" s="11">
         <v>15</v>
       </c>
       <c r="D53">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E53" s="35">
         <f>D53*C53*B53</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="F53" s="44">
         <v>20</v>
       </c>
-      <c r="G53" s="42">
-        <f>25*F53</f>
-        <v>500</v>
+      <c r="G53">
+        <v>15</v>
       </c>
       <c r="H53" s="42">
-        <f t="shared" si="7"/>
-        <v>4000</v>
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="I53" s="42">
+        <f>E53-H53</f>
+        <v>-300</v>
       </c>
     </row>
   </sheetData>
